--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Attr_Desc_DEF</t>
+  </si>
+  <si>
+    <t>战斗随机数</t>
+  </si>
+  <si>
+    <t>BattleRandomSeed</t>
   </si>
 </sst>
 </file>
@@ -207,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -234,78 +240,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,6 +333,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -393,187 +399,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,30 +590,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,30 +604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +634,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -692,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1200,18 +1206,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J17"/>
+  <dimension ref="C2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="5" width="18.2166666666667" customWidth="1"/>
+    <col min="4" max="5" width="18.2181818181818" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="24.775" customWidth="1"/>
-    <col min="9" max="9" width="14.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.7727272727273" customWidth="1"/>
+    <col min="9" max="9" width="14.8818181818182" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1221,7 +1227,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="3:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="3:10">
+    <row r="6" spans="3:10">
       <c r="C6" s="3">
         <v>1000</v>
       </c>
@@ -1315,7 +1321,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="3:10">
+    <row r="7" spans="3:10">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="3:10">
+    <row r="8" spans="3:10">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="3:10">
+    <row r="9" spans="3:10">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="3:10">
+    <row r="10" spans="3:10">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="3:10">
+    <row r="11" spans="3:10">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="3:10">
+    <row r="12" spans="3:10">
       <c r="C12" s="3">
         <v>1006</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="3:10">
+    <row r="13" spans="3:10">
       <c r="C13" s="3">
         <v>1007</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="3:10">
+    <row r="14" spans="3:10">
       <c r="C14" s="3">
         <v>1008</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="3:10">
+    <row r="15" spans="3:10">
       <c r="C15" s="3">
         <v>1009</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="3:10">
+    <row r="16" spans="3:10">
       <c r="C16" s="3">
         <v>1010</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="3:10">
+    <row r="17" spans="3:10">
       <c r="C17" s="3">
         <v>1011</v>
       </c>
@@ -1549,6 +1555,20 @@
       </c>
       <c r="J17" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="4">
+        <v>1012</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -70,9 +70,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>AOI</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t>Attr_Lv</t>
   </si>
   <si>
-    <t>Attr_Desc_Lv</t>
+    <t>经验</t>
   </si>
   <si>
     <t>Exp</t>
@@ -91,10 +88,25 @@
     <t>Attr_Exp</t>
   </si>
   <si>
-    <t>Attr_Desc_Exp</t>
-  </si>
-  <si>
-    <t>当前血量</t>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Attr_ATK</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Attr_DEF</t>
+  </si>
+  <si>
+    <t>生命</t>
   </si>
   <si>
     <t>Hp</t>
@@ -103,109 +115,31 @@
     <t>Attr_HP</t>
   </si>
   <si>
-    <t>Attr_Desc_HP</t>
-  </si>
-  <si>
-    <t>最大血量上限</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>Attr_Max_Hp</t>
-  </si>
-  <si>
-    <t>Attr_Desc_Max_Hp</t>
-  </si>
-  <si>
-    <t>血量回复</t>
-  </si>
-  <si>
-    <t>HpReUp</t>
-  </si>
-  <si>
-    <t>Attr_Hp_ReUp</t>
-  </si>
-  <si>
-    <t>Attr_Desc_Hp_ReUp</t>
-  </si>
-  <si>
-    <t>当前法力</t>
-  </si>
-  <si>
-    <t>Mp</t>
-  </si>
-  <si>
-    <t>Attr_Mp</t>
-  </si>
-  <si>
-    <t>Attr_Desc_Mp</t>
-  </si>
-  <si>
-    <t>最大法力上限</t>
-  </si>
-  <si>
-    <t>MaxMp</t>
-  </si>
-  <si>
-    <t>Attr_Max_Mp</t>
-  </si>
-  <si>
-    <t>Attr_Desc_Max_Mp</t>
-  </si>
-  <si>
-    <t>法力回复</t>
-  </si>
-  <si>
-    <t>MpReUp</t>
-  </si>
-  <si>
-    <t>Attr_Mp_ReUp</t>
-  </si>
-  <si>
-    <t>Attr_Desc_Mp_ReUp</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Attr_Move_Speed</t>
-  </si>
-  <si>
-    <t>Attr_Desc_Move_Speed</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>ATK</t>
-  </si>
-  <si>
-    <t>Attr_ATK</t>
-  </si>
-  <si>
-    <t>Attr_Desc_ATK</t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>Attr_DEF</t>
-  </si>
-  <si>
-    <t>Attr_Desc_DEF</t>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>Dmg</t>
+  </si>
+  <si>
+    <t>Attr_Dmg</t>
   </si>
   <si>
     <t>战斗随机数</t>
   </si>
   <si>
     <t>BattleRandomSeed</t>
+  </si>
+  <si>
+    <t>属性点</t>
+  </si>
+  <si>
+    <t>AttributePoint</t>
+  </si>
+  <si>
+    <t>战斗力</t>
+  </si>
+  <si>
+    <t>CE</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J18"/>
+  <dimension ref="C2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1307,15 +1241,17 @@
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="3">
-        <v>1000</v>
+        <v>3001</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -1323,67 +1259,60 @@
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="3">
-        <v>1001</v>
+        <v>3002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" s="3">
-        <v>1002</v>
+        <v>3003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="3:10">
       <c r="C9" s="3">
-        <v>1003</v>
+        <v>3004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="3:10">
       <c r="C10" s="3">
-        <v>1004</v>
+        <v>3005</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
@@ -1396,180 +1325,101 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="3">
-        <v>1005</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="4">
+        <v>3007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="3">
-        <v>1006</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="3">
-        <v>1007</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>3008</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="3">
-        <v>1008</v>
+        <v>3009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="3">
-        <v>1009</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="3">
-        <v>1010</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="7:10">
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="7:10">
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="4">
-        <v>1012</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -140,6 +140,42 @@
   </si>
   <si>
     <t>CE</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>是否存活</t>
+  </si>
+  <si>
+    <t>IsAlive</t>
+  </si>
+  <si>
+    <t>冒险状态</t>
+  </si>
+  <si>
+    <t>AdventureState</t>
+  </si>
+  <si>
+    <t>垂死状态</t>
+  </si>
+  <si>
+    <t>DyingState</t>
+  </si>
+  <si>
+    <t>战斗开始时间</t>
+  </si>
+  <si>
+    <t>AdventureStartTime</t>
+  </si>
+  <si>
+    <t>当前关卡</t>
+  </si>
+  <si>
+    <t>CurLevel</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J17"/>
+  <dimension ref="C2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1400,26 +1436,100 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="3">
+        <v>3010</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="7:10">
+    <row r="16" spans="3:10">
+      <c r="C16" s="4">
+        <v>3011</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="3:10">
+      <c r="C17" s="3">
+        <v>3012</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="4">
+        <v>3013</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="4">
+        <v>3014</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="4">
+        <v>3015</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -176,6 +176,36 @@
   </si>
   <si>
     <t>CurLevel</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>坐标X</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>坐标Z</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>视野</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>小队ID</t>
+  </si>
+  <si>
+    <t>RoomID</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J20"/>
+  <dimension ref="C2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1531,6 +1561,82 @@
         <v>53</v>
       </c>
     </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="4">
+        <v>3016</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="4">
+        <v>3017</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="4">
+        <v>3018</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="4">
+        <v>3019</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="4">
+        <v>3020</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>RoomID</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>ATKSpeed</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>ATKRage</t>
+  </si>
+  <si>
+    <t>复活时间</t>
+  </si>
+  <si>
+    <t>RestartTime</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J25"/>
+  <dimension ref="C2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1561,7 +1579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:7">
       <c r="C21" s="4">
         <v>3016</v>
       </c>
@@ -1573,6 +1591,9 @@
       </c>
       <c r="F21" t="s">
         <v>55</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -1635,6 +1656,54 @@
       </c>
       <c r="F25" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="4">
+        <v>3021</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="4">
+        <v>3022</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="4">
+        <v>3023</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -76,54 +76,36 @@
     <t>Lv</t>
   </si>
   <si>
-    <t>Attr_Lv</t>
-  </si>
-  <si>
     <t>经验</t>
   </si>
   <si>
     <t>Exp</t>
   </si>
   <si>
-    <t>Attr_Exp</t>
-  </si>
-  <si>
     <t>攻击</t>
   </si>
   <si>
     <t>Atk</t>
   </si>
   <si>
-    <t>Attr_ATK</t>
-  </si>
-  <si>
     <t>防御</t>
   </si>
   <si>
     <t>Def</t>
   </si>
   <si>
-    <t>Attr_DEF</t>
-  </si>
-  <si>
     <t>生命</t>
   </si>
   <si>
     <t>Hp</t>
   </si>
   <si>
-    <t>Attr_HP</t>
-  </si>
-  <si>
     <t>伤害</t>
   </si>
   <si>
     <t>Dmg</t>
   </si>
   <si>
-    <t>Attr_Dmg</t>
-  </si>
-  <si>
     <t>战斗随机数</t>
   </si>
   <si>
@@ -224,6 +206,18 @@
   </si>
   <si>
     <t>RestartTime</t>
+  </si>
+  <si>
+    <t>背包最大容量</t>
+  </si>
+  <si>
+    <t>MaxBagCapacity</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J28"/>
+  <dimension ref="C2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1334,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1346,13 +1340,13 @@
         <v>3002</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1364,13 +1358,13 @@
         <v>3003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1382,13 +1376,13 @@
         <v>3004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1399,13 +1393,13 @@
         <v>3005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1417,13 +1411,13 @@
         <v>3006</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1435,13 +1429,13 @@
         <v>3007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1452,13 +1446,13 @@
         <v>3008</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1470,13 +1464,13 @@
         <v>3009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1488,13 +1482,13 @@
         <v>3010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1506,13 +1500,13 @@
         <v>3011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1524,13 +1518,13 @@
         <v>3012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1542,13 +1536,13 @@
         <v>3013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -1556,13 +1550,13 @@
         <v>3014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -1570,13 +1564,13 @@
         <v>3015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -1584,13 +1578,13 @@
         <v>3016</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1601,13 +1595,13 @@
         <v>3017</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1618,13 +1612,13 @@
         <v>3018</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1635,13 +1629,13 @@
         <v>3019</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -1649,13 +1643,13 @@
         <v>3020</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:7">
@@ -1663,13 +1657,13 @@
         <v>3021</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1680,13 +1674,13 @@
         <v>3022</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1697,14 +1691,45 @@
         <v>3023</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="4">
+        <v>3024</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="4">
+        <v>3025</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
